--- a/MATLAB/busRoutes.xlsx
+++ b/MATLAB/busRoutes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torit\OneDrive\Documents\UIS\mastermappe\discrete\DiscreteProject_Dat530\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3272337-69B6-4D13-8FEA-2FEC9FEDDDA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D30614-0116-4CAC-ADEE-A7740EE651B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{589044F1-6F52-4B22-9428-1ABC84B58FC6}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{589044F1-6F52-4B22-9428-1ABC84B58FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +416,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +452,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2">
@@ -466,7 +467,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2">
@@ -474,7 +475,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3">
@@ -489,7 +490,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3">
@@ -497,7 +498,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
       <c r="B4">
@@ -512,7 +513,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4">
@@ -535,7 +536,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G5">
@@ -548,6 +549,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100733CD465420CAE409FA9D86F7554025A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be6d1e0b284354cf4b30d8329f98f0b7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7203a664-f71e-4aec-af40-639c26d37cb3" xmlns:ns4="06f1dcf7-ffbb-4b69-8622-ff2c07d55be4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81444fbb9c52fb776970d67f65ea53b9" ns3:_="" ns4:_="">
     <xsd:import namespace="7203a664-f71e-4aec-af40-639c26d37cb3"/>
@@ -764,15 +774,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -780,6 +781,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A90391D-5D85-4058-9CD8-79FF5B7540A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B502864-B3C6-4E1F-B358-946F5B8E51F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -798,14 +807,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A90391D-5D85-4058-9CD8-79FF5B7540A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E61602-7011-4410-BD02-79869054041D}">
   <ds:schemaRefs>
